--- a/_Out/NFDataCfg/Excel/GuildConfig.xlsx
+++ b/_Out/NFDataCfg/Excel/GuildConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -725,22 +725,22 @@
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="b">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -748,22 +748,22 @@
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="b">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -771,22 +771,22 @@
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="b">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -794,22 +794,22 @@
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="b">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -817,22 +817,22 @@
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
     </row>
@@ -840,22 +840,22 @@
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -863,22 +863,22 @@
       <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>

--- a/_Out/NFDataCfg/Excel/GuildConfig.xlsx
+++ b/_Out/NFDataCfg/Excel/GuildConfig.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -30,26 +30,17 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Equip" type="4" refreshedVersion="2" background="1" saveData="1">
     <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Equip.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>ConditionPlayerLevel</t>
-  </si>
-  <si>
-    <t>ConditionPlayerVIP</t>
-  </si>
-  <si>
-    <t>CostMoney</t>
   </si>
   <si>
     <t>DismissTime</t>
@@ -129,12 +120,33 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>SkillNum</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -383,7 +395,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -656,307 +668,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.19921875" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="28.5">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="7" t="s">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
-      <c r="A3" s="7" t="s">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
-      <c r="A4" s="7" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
-      <c r="A5" s="7" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="28.5">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
-      <c r="A6" s="7" t="s">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="13.5">
-      <c r="A7" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="13.5">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="13.5">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="28.5">
-      <c r="A10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="B11" s="14">
         <v>1</v>
       </c>
       <c r="C11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
         <v>100</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14">
+        <v>100</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="14">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B13" s="14">
         <v>3</v>
-      </c>
-      <c r="D12" s="14">
-        <v>100</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="14">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="14">
-        <v>100</v>
       </c>
       <c r="C13" s="14">
         <v>100</v>
@@ -964,21 +1012,24 @@
       <c r="D13" s="14">
         <v>100</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3</v>
+      <c r="E13" s="14">
+        <v>100</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:B9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
